--- a/Route Allocations.xlsx
+++ b/Route Allocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC_RAD_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9570B9BA-FF6D-44CA-A712-674C57574B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27C1E6F-354E-4681-AA17-296F170524A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F2AB3EA-79E7-437F-83F4-E1D84B669F38}"/>
   </bookViews>

--- a/Route Allocations.xlsx
+++ b/Route Allocations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC_RAD_tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27C1E6F-354E-4681-AA17-296F170524A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BC7106-D04E-4679-AB49-2F1F6481DAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F2AB3EA-79E7-437F-83F4-E1D84B669F38}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="13">
   <si>
     <t>Wilson</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Arrow</t>
   </si>
   <si>
-    <t>Birchmount, Eglinton, Queensway</t>
-  </si>
-  <si>
-    <t>Mount Dennis, Wilson</t>
-  </si>
-  <si>
     <t>Arrow, McNicoll</t>
   </si>
   <si>
@@ -78,7 +72,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Arrow, Malvern, McNicoll</t>
+    <t>Birchmount, Queensway</t>
   </si>
 </sst>
 </file>
@@ -432,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808567C2-83AE-46CA-A004-E9C6BF0E20E7}">
   <dimension ref="A1:GZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FF1" workbookViewId="0">
-      <selection activeCell="FT4" sqref="FT4"/>
+    <sheetView tabSelected="1" topLeftCell="FI1" workbookViewId="0">
+      <selection activeCell="FT3" sqref="FT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,64 +1480,64 @@
         <v>5</v>
       </c>
       <c r="EK2" t="s">
+        <v>10</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN2" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EO2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>9</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>4</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>4</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="FB2" t="s">
         <v>8</v>
       </c>
-      <c r="EM2" t="s">
-        <v>6</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>9</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>13</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>0</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>11</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>4</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>4</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>4</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>10</v>
-      </c>
       <c r="FC2" t="s">
         <v>5</v>
       </c>
       <c r="FD2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="FE2" t="s">
         <v>4</v>
@@ -1579,25 +1573,31 @@
         <v>7</v>
       </c>
       <c r="FP2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>11</v>
       </c>
       <c r="FR2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>11</v>
       </c>
       <c r="FT2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="FU2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="FV2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="FW2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="FX2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="FY2" t="s">
         <v>5</v>

--- a/Route Allocations.xlsx
+++ b/Route Allocations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BC7106-D04E-4679-AB49-2F1F6481DAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF57542-6210-4F40-96D7-1178DC246EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F2AB3EA-79E7-437F-83F4-E1D84B669F38}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Birchmount, Queensway</t>
+    <t>Queensway, Wilson</t>
   </si>
 </sst>
 </file>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808567C2-83AE-46CA-A004-E9C6BF0E20E7}">
   <dimension ref="A1:GZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FI1" workbookViewId="0">
-      <selection activeCell="FT3" sqref="FT3"/>
+    <sheetView tabSelected="1" topLeftCell="EF1" workbookViewId="0">
+      <selection activeCell="EO7" sqref="EO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1483,13 +1483,13 @@
         <v>10</v>
       </c>
       <c r="EL2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="EM2" t="s">
         <v>6</v>
       </c>
       <c r="EN2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="s">
         <v>2</v>
@@ -1573,13 +1573,13 @@
         <v>7</v>
       </c>
       <c r="FP2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="FQ2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="FR2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="s">
         <v>11</v>

--- a/Route Allocations.xlsx
+++ b/Route Allocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF57542-6210-4F40-96D7-1178DC246EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80DF35-0343-4014-9714-193174EE4B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F2AB3EA-79E7-437F-83F4-E1D84B669F38}"/>
+    <workbookView xWindow="13668" yWindow="2664" windowWidth="7500" windowHeight="9276" xr2:uid="{1F2AB3EA-79E7-437F-83F4-E1D84B669F38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Queensway, Wilson</t>
+    <t>Mount Dennis, Queensway, Wilson</t>
   </si>
 </sst>
 </file>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808567C2-83AE-46CA-A004-E9C6BF0E20E7}">
   <dimension ref="A1:GZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EF1" workbookViewId="0">
-      <selection activeCell="EO7" sqref="EO7"/>
+    <sheetView tabSelected="1" topLeftCell="FO1" workbookViewId="0">
+      <selection activeCell="FT6" sqref="FT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Route Allocations.xlsx
+++ b/Route Allocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\OneDrive\Desktop\TTC-RAD-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80DF35-0343-4014-9714-193174EE4B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526F255-DFF7-47F7-A6B5-C4BB255B4990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13668" yWindow="2664" windowWidth="7500" windowHeight="9276" xr2:uid="{1F2AB3EA-79E7-437F-83F4-E1D84B669F38}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F2AB3EA-79E7-437F-83F4-E1D84B669F38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808567C2-83AE-46CA-A004-E9C6BF0E20E7}">
   <dimension ref="A1:GZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FO1" workbookViewId="0">
-      <selection activeCell="FT6" sqref="FT6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
